--- a/Completion Checklist.xlsx
+++ b/Completion Checklist.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="10000" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="11080" windowHeight="14180" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CARPP" sheetId="1" r:id="rId1"/>
+    <sheet name="BETTA" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="22">
   <si>
     <t>CABIL</t>
   </si>
@@ -70,15 +72,46 @@
   <si>
     <t>GNG</t>
   </si>
+  <si>
+    <t>cabil</t>
+  </si>
+  <si>
+    <t>dx</t>
+  </si>
+  <si>
+    <t>hc</t>
+  </si>
+  <si>
+    <t>ax</t>
+  </si>
+  <si>
+    <t>eGNG_faces_angry</t>
+  </si>
+  <si>
+    <t>eGNG_faces_happy</t>
+  </si>
+  <si>
+    <t>eGNG_IAPS_negative</t>
+  </si>
+  <si>
+    <t>eGNG_IAPS_positive</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -104,8 +137,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,7 +419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2228,4 +2262,1222 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="M30" sqref="M30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>885</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>890</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>905</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>906</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>907</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>912</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>913</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>914</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>920</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>924</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>932</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>939</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>941</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>949</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>958</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>965</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>967</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>505</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>651</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>813</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>880</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>881</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>886</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>904</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>909</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>911</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>915</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>919</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>921</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" t="s">
+        <v>5</v>
+      </c>
+      <c r="J30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>922</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" t="s">
+        <v>5</v>
+      </c>
+      <c r="J31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>925</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>926</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>927</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>931</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>940</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" t="s">
+        <v>5</v>
+      </c>
+      <c r="I36" t="s">
+        <v>5</v>
+      </c>
+      <c r="J36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>957</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37" t="s">
+        <v>5</v>
+      </c>
+      <c r="I37" t="s">
+        <v>5</v>
+      </c>
+      <c r="J37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B37">
+    <sortCondition ref="B2:B37"/>
+    <sortCondition ref="A2:A37"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Completion Checklist.xlsx
+++ b/Completion Checklist.xlsx
@@ -2269,13 +2269,16 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M30" sqref="M30"/>
+      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="25.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -2975,7 +2978,7 @@
         <v>5</v>
       </c>
       <c r="I22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J22" t="s">
         <v>5</v>
@@ -3004,10 +3007,10 @@
         <v>5</v>
       </c>
       <c r="H23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J23" t="s">
         <v>5</v>
